--- a/output/1Y_P32_1VAL-D.xlsx
+++ b/output/1Y_P32_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>766.0605</v>
       </c>
-      <c r="G2" s="1">
-        <v>766.0605</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.137699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.137699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E3" s="1">
+        <v>766.0605</v>
+      </c>
       <c r="F3" s="1">
         <v>722.3711</v>
       </c>
-      <c r="G3" s="1">
-        <v>1488.4316</v>
-      </c>
       <c r="H3" s="1">
-        <v>20497.9353</v>
+        <v>10549.8016</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.437</v>
+        <v>10549.8016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.0538</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20497.9353</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0276</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E4" s="1">
+        <v>1488.4316</v>
+      </c>
       <c r="F4" s="1">
         <v>694.03</v>
       </c>
-      <c r="G4" s="1">
-        <v>2182.4615</v>
-      </c>
       <c r="H4" s="1">
-        <v>31283.1852</v>
+        <v>21335.0293</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7459</v>
+        <v>21335.0293</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.437</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31283.1852</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0257</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E5" s="1">
+        <v>2182.4615</v>
+      </c>
       <c r="F5" s="1">
         <v>669.6219</v>
       </c>
-      <c r="G5" s="1">
-        <v>2852.0835</v>
-      </c>
       <c r="H5" s="1">
-        <v>42371.4074</v>
+        <v>32423.3031</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0248</v>
+        <v>32423.3031</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.7459</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42371.4074</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0264</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.9313</v>
       </c>
+      <c r="E6" s="1">
+        <v>2852.0835</v>
+      </c>
       <c r="F6" s="1">
         <v>627.6952</v>
       </c>
-      <c r="G6" s="1">
-        <v>3479.7786</v>
-      </c>
       <c r="H6" s="1">
-        <v>55149.9674</v>
+        <v>45201.815</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>14.3687</v>
+        <v>45201.815</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.0248</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55149.9674</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0531</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E7" s="1">
+        <v>3479.7786</v>
+      </c>
       <c r="F7" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G7" s="1">
-        <v>4067.2985</v>
-      </c>
       <c r="H7" s="1">
-        <v>68869.12549999999</v>
+        <v>58921.0035</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>14.7518</v>
+        <v>58921.0035</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.3687</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68869.12549999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0571</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E8" s="1">
+        <v>4067.2985</v>
+      </c>
       <c r="F8" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G8" s="1">
-        <v>4640.01</v>
-      </c>
       <c r="H8" s="1">
-        <v>80597.9011</v>
+        <v>70649.78879999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.0862</v>
+        <v>70649.78879999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.7518</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>80597.9011</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0219</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.886</v>
       </c>
+      <c r="E9" s="1">
+        <v>4640.01</v>
+      </c>
       <c r="F9" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G9" s="1">
-        <v>5232.2165</v>
-      </c>
       <c r="H9" s="1">
-        <v>87893.3894</v>
+        <v>77945.2074</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.2899</v>
+        <v>77945.2074</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.0862</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87893.3894</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0299</v>
+        <v>-0.0335</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.59</v>
       </c>
+      <c r="E10" s="1">
+        <v>5232.2165</v>
+      </c>
       <c r="F10" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G10" s="1">
-        <v>5800.7214</v>
-      </c>
       <c r="H10" s="1">
-        <v>101505.663</v>
+        <v>91557.51059999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.5153</v>
+        <v>91557.51059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.2899</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101505.663</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0369</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E11" s="1">
+        <v>5800.7214</v>
+      </c>
       <c r="F11" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G11" s="1">
-        <v>6466.8507</v>
-      </c>
       <c r="H11" s="1">
-        <v>96577.2415</v>
+        <v>86629.133</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.4635</v>
+        <v>86629.133</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>15.5153</v>
+      </c>
+      <c r="M11" s="1">
         <v>3.57</v>
       </c>
-      <c r="L11" s="1">
-        <v>18637.7177</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>8637.717699999999</v>
+        <v>16811.1117</v>
       </c>
       <c r="O11" s="1">
-        <v>18637.7177</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>115214.9592</v>
+        <v>6811.1117</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0333</v>
+        <v>-0.147</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E12" s="1">
+        <v>6466.8507</v>
+      </c>
       <c r="F12" s="1">
-        <v>1257.3698</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7724.2205</v>
+        <v>1197.9274</v>
       </c>
       <c r="H12" s="1">
-        <v>118063.1658</v>
+        <v>98844.5193</v>
       </c>
       <c r="I12" s="1">
-        <v>119318.8589</v>
+        <v>16811.1117</v>
       </c>
       <c r="J12" s="1">
-        <v>15.4474</v>
+        <v>115655.631</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>108405.5559</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7633</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-19318.8589</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>9318.858899999999</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>127382.0247</v>
+        <v>-18405.5559</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0173</v>
+        <v>0.1969</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E13" s="1">
+        <v>7664.7781</v>
+      </c>
       <c r="F13" s="1">
-        <v>1171.1735</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8895.3941</v>
+        <v>1115.8061</v>
       </c>
       <c r="H13" s="1">
-        <v>145970.7479</v>
+        <v>125776.7093</v>
       </c>
       <c r="I13" s="1">
-        <v>138637.7177</v>
+        <v>8405.555899999999</v>
       </c>
       <c r="J13" s="1">
-        <v>15.5853</v>
+        <v>134182.2651</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>126811.1117</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5447</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19318.8589</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>145970.7479</v>
+        <v>-18405.5559</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0625</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E14" s="1">
+        <v>8780.584199999999</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8895.3941</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7664.7781</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>148234.7001</v>
       </c>
       <c r="I14" s="1">
-        <v>138637.7177</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.5853</v>
+        <v>148234.7001</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>126811.1117</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.4422</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>150172.9321</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>150172.9321</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>150172.9321</v>
+        <v>129397.5504</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0372</v>
+        <v>0.0281</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>766.0605</v>
       </c>
       <c r="G2" s="1">
-        <v>766.0605</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.137699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.137699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.8433</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>766.0605</v>
       </c>
       <c r="F3" s="1">
         <v>686.2142</v>
       </c>
       <c r="G3" s="1">
-        <v>1452.2746</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10549.8016</v>
       </c>
       <c r="I3" s="1">
-        <v>19499.4686</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4268</v>
+        <v>10549.8016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9499.4686</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.4004</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9499.4686</v>
       </c>
-      <c r="O3" s="1">
-        <v>500.5314</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20500.5314</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0277</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.4086</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1452.2746</v>
       </c>
       <c r="F4" s="1">
         <v>640.6659</v>
       </c>
       <c r="G4" s="1">
-        <v>2092.9405</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20816.7592</v>
       </c>
       <c r="I4" s="1">
-        <v>28730.5671</v>
+        <v>500.5314</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7274</v>
+        <v>21317.2907</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18730.5671</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.8974</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9231.0985</v>
       </c>
-      <c r="O4" s="1">
-        <v>1269.4329</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31269.4329</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0252</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.9338</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2092.9405</v>
       </c>
       <c r="F5" s="1">
         <v>599.5199</v>
       </c>
       <c r="G5" s="1">
-        <v>2692.4604</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31093.3521</v>
       </c>
       <c r="I5" s="1">
-        <v>37683.6778</v>
+        <v>1269.4329</v>
       </c>
       <c r="J5" s="1">
-        <v>13.996</v>
+        <v>32362.785</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27683.6778</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.2272</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8953.110699999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2316.3222</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42316.3222</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0254</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.9313</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2692.4604</v>
       </c>
       <c r="F6" s="1">
         <v>462.3725</v>
       </c>
       <c r="G6" s="1">
-        <v>3154.8329</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42671.9977</v>
       </c>
       <c r="I6" s="1">
-        <v>45049.872</v>
+        <v>2316.3222</v>
       </c>
       <c r="J6" s="1">
-        <v>14.2796</v>
+        <v>44988.32</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35049.872</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.0178</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7366.1942</v>
       </c>
-      <c r="O6" s="1">
-        <v>4950.128</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54950.128</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0503</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.0207</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3154.8329</v>
       </c>
       <c r="F7" s="1">
         <v>388.6695</v>
       </c>
       <c r="G7" s="1">
-        <v>3543.5024</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53418.8924</v>
       </c>
       <c r="I7" s="1">
-        <v>51665.2991</v>
+        <v>4950.128</v>
       </c>
       <c r="J7" s="1">
-        <v>14.5803</v>
+        <v>58369.0204</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>41665.2991</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.2068</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6615.4271</v>
       </c>
-      <c r="O7" s="1">
-        <v>8334.7009</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68334.7009</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0521</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.4608</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3543.5024</v>
       </c>
       <c r="F8" s="1">
         <v>486.3879</v>
       </c>
       <c r="G8" s="1">
-        <v>4029.8903</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61551.3453</v>
       </c>
       <c r="I8" s="1">
-        <v>60158.0205</v>
+        <v>8334.7009</v>
       </c>
       <c r="J8" s="1">
-        <v>14.928</v>
+        <v>69886.0463</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>50158.0205</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1549</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8492.7214</v>
       </c>
-      <c r="O8" s="1">
-        <v>9841.979499999999</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79841.9795</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0192</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.886</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4029.8903</v>
       </c>
       <c r="F9" s="1">
         <v>732.4397</v>
       </c>
       <c r="G9" s="1">
-        <v>4762.33</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>67696.11169999999</v>
       </c>
       <c r="I9" s="1">
-        <v>72525.9972</v>
+        <v>9841.979499999999</v>
       </c>
       <c r="J9" s="1">
-        <v>15.2291</v>
+        <v>77538.0912</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62525.9972</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5156</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12367.9767</v>
       </c>
-      <c r="O9" s="1">
-        <v>7474.0028</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87474.0028</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0264</v>
+        <v>-0.0294</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.59</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4762.33</v>
       </c>
       <c r="F10" s="1">
         <v>380.8799</v>
       </c>
       <c r="G10" s="1">
-        <v>5143.2098</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83335.0597</v>
       </c>
       <c r="I10" s="1">
-        <v>79225.6738</v>
+        <v>7474.0028</v>
       </c>
       <c r="J10" s="1">
-        <v>15.4039</v>
+        <v>90809.0625</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69225.6738</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.5361</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6699.6766</v>
       </c>
-      <c r="O10" s="1">
-        <v>10774.3262</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100774.3262</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0339</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.0121</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5143.2098</v>
       </c>
       <c r="F11" s="1">
         <v>1383.8388</v>
       </c>
       <c r="G11" s="1">
-        <v>6527.0486</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>97476.2493</v>
+        <v>76809.72410000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>10774.3262</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3209</v>
+        <v>87584.0503</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M11" s="1">
         <v>3.57</v>
       </c>
-      <c r="L11" s="1">
-        <v>16525.1332</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-4249.1931</v>
+        <v>15301.3662</v>
       </c>
       <c r="O11" s="1">
-        <v>16525.1332</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114001.3824</v>
+        <v>-5472.96</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0291</v>
+        <v>-0.1312</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.3645</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6527.0486</v>
       </c>
       <c r="F12" s="1">
         <v>669.6435</v>
       </c>
       <c r="G12" s="1">
-        <v>7196.6921</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>99764.63250000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110288.7381</v>
+        <v>15301.3662</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3249</v>
+        <v>115065.9987</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100288.7381</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.3651</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10288.7381</v>
       </c>
-      <c r="O12" s="1">
-        <v>16236.3951</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126236.3951</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.018</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.4953</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7196.6921</v>
       </c>
       <c r="F13" s="1">
         <v>116.0558</v>
       </c>
       <c r="G13" s="1">
-        <v>7312.7479</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>118095.559</v>
       </c>
       <c r="I13" s="1">
-        <v>112203.1135</v>
+        <v>15012.6281</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3435</v>
+        <v>133108.1871</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102203.1135</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.2014</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-1914.3754</v>
       </c>
-      <c r="O13" s="1">
-        <v>24322.0197</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144322.0197</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0593</v>
+        <v>0.0643</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.9701</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7312.7479</v>
       </c>
       <c r="F14" s="1">
         <v>-7312.7479</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123454.5421</v>
       </c>
       <c r="I14" s="1">
-        <v>112203.1135</v>
+        <v>23098.2527</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3435</v>
+        <v>146552.7948</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102203.1135</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>13.976</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123454.5421</v>
       </c>
-      <c r="O14" s="1">
-        <v>147776.5618</v>
-      </c>
-      <c r="P14" s="1">
-        <v>147776.5618</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0424</v>
+        <v>0.0241</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>766.0605</v>
       </c>
       <c r="G2" s="1">
-        <v>766.0605</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.137699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.137699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.8433</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>766.0605</v>
       </c>
       <c r="F3" s="1">
         <v>689.8449000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1455.9053</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10549.8016</v>
       </c>
       <c r="I3" s="1">
-        <v>19549.7293</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4279</v>
+        <v>10549.8016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9549.729300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.466</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9549.729300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>450.2707</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20500.2707</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0277</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.4086</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1455.9053</v>
       </c>
       <c r="F4" s="1">
         <v>647.5173</v>
       </c>
       <c r="G4" s="1">
-        <v>2103.4227</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20868.8011</v>
       </c>
       <c r="I4" s="1">
-        <v>28879.5477</v>
+        <v>450.2707</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7298</v>
+        <v>21319.0719</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18879.5477</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.9676</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9329.8184</v>
       </c>
-      <c r="O4" s="1">
-        <v>1120.4523</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31270.7023</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0253</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.9338</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2103.4227</v>
       </c>
       <c r="F5" s="1">
         <v>609.2986</v>
       </c>
       <c r="G5" s="1">
-        <v>2712.7213</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0013</v>
+        <v>31249.078</v>
       </c>
       <c r="I5" s="1">
-        <v>37978.6916</v>
+        <v>1120.4523</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0002</v>
+        <v>32369.5303</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27978.6916</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.3015</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9099.143899999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2021.3084</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42322.3097</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0255</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.9313</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2712.7213</v>
       </c>
       <c r="F6" s="1">
         <v>473.8181</v>
       </c>
       <c r="G6" s="1">
-        <v>3186.5394</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42993.1059</v>
       </c>
       <c r="I6" s="1">
-        <v>45527.2293</v>
+        <v>2021.3084</v>
       </c>
       <c r="J6" s="1">
-        <v>14.2874</v>
+        <v>45014.4143</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35527.2293</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.0965</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7548.5378</v>
       </c>
-      <c r="O6" s="1">
-        <v>4472.7707</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54975.2769</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0507</v>
+        <v>0.0624</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.0207</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3186.5394</v>
       </c>
       <c r="F7" s="1">
         <v>401.5532</v>
       </c>
       <c r="G7" s="1">
-        <v>3588.0926</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53955.759</v>
       </c>
       <c r="I7" s="1">
-        <v>52361.9463</v>
+        <v>4472.7707</v>
       </c>
       <c r="J7" s="1">
-        <v>14.5933</v>
+        <v>58428.5296</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42361.9463</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.294</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6834.717</v>
       </c>
-      <c r="O7" s="1">
-        <v>7638.0537</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68393.07249999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0526</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.4608</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3588.0926</v>
       </c>
       <c r="F8" s="1">
         <v>502.7523</v>
       </c>
       <c r="G8" s="1">
-        <v>4090.8449</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62325.8857</v>
       </c>
       <c r="I8" s="1">
-        <v>61140.4038</v>
+        <v>7638.0537</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9457</v>
+        <v>69963.9394</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51140.4038</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.2528</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8778.4575</v>
       </c>
-      <c r="O8" s="1">
-        <v>8859.5962</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79918.39</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0195</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.886</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4090.8449</v>
       </c>
       <c r="F9" s="1">
         <v>755.6645</v>
       </c>
       <c r="G9" s="1">
-        <v>4846.5094</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>68720.0579</v>
       </c>
       <c r="I9" s="1">
-        <v>73900.5545</v>
+        <v>8859.5962</v>
       </c>
       <c r="J9" s="1">
-        <v>15.2482</v>
+        <v>77579.65399999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63900.5545</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6204</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12760.1506</v>
       </c>
-      <c r="O9" s="1">
-        <v>6099.4455</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87513.5334</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0267</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.59</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4846.5094</v>
       </c>
       <c r="F10" s="1">
         <v>400.7738</v>
       </c>
       <c r="G10" s="1">
-        <v>5247.2831</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84808.0984</v>
       </c>
       <c r="I10" s="1">
-        <v>80950.16499999999</v>
+        <v>6099.4455</v>
       </c>
       <c r="J10" s="1">
-        <v>15.4271</v>
+        <v>90907.5439</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70950.16499999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.6394</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7049.6105</v>
       </c>
-      <c r="O10" s="1">
-        <v>9049.834999999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100870.9933</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0344</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.0121</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5247.2831</v>
       </c>
       <c r="F11" s="1">
         <v>1268.9654</v>
       </c>
       <c r="G11" s="1">
-        <v>6516.2485</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>97314.9586</v>
+        <v>78363.9759</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>9049.834999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3463</v>
+        <v>87413.811</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.1517</v>
+      </c>
+      <c r="M11" s="1">
         <v>3.57</v>
       </c>
-      <c r="L11" s="1">
-        <v>16859.5207</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-2190.3143</v>
+        <v>15571.8346</v>
       </c>
       <c r="O11" s="1">
-        <v>16859.5207</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114174.4793</v>
+        <v>-3478.0004</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0298</v>
+        <v>-0.1337</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.3645</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6516.2485</v>
       </c>
       <c r="F12" s="1">
         <v>863.0869</v>
       </c>
       <c r="G12" s="1">
-        <v>7379.3354</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>99599.55530000001</v>
       </c>
       <c r="I12" s="1">
-        <v>113260.8981</v>
+        <v>15571.8346</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3484</v>
+        <v>115171.3899</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103260.8981</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8467</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13260.8981</v>
       </c>
-      <c r="O12" s="1">
-        <v>13598.6226</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126390.288</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0178</v>
+        <v>0.1823</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.4953</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7379.3354</v>
       </c>
       <c r="F13" s="1">
         <v>137.9028</v>
       </c>
       <c r="G13" s="1">
-        <v>7517.2382</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>121092.6798</v>
       </c>
       <c r="I13" s="1">
-        <v>115535.6466</v>
+        <v>12310.9365</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3694</v>
+        <v>133403.6163</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>105535.6466</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.3015</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2274.7484</v>
       </c>
-      <c r="O13" s="1">
-        <v>21323.8742</v>
-      </c>
-      <c r="P13" s="1">
-        <v>144679.4979</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0608</v>
+        <v>0.0658</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.9701</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7517.2382</v>
       </c>
       <c r="F14" s="1">
         <v>-7517.2382</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126906.7671</v>
       </c>
       <c r="I14" s="1">
-        <v>115535.6466</v>
+        <v>20036.1881</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3694</v>
+        <v>146942.9551</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>105535.6466</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.0392</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126906.7671</v>
       </c>
-      <c r="O14" s="1">
-        <v>148230.6412</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148230.6412</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0417</v>
+        <v>0.0247</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>766.0605</v>
       </c>
       <c r="G2" s="1">
-        <v>766.0605</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.137699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.137699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.8433</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>766.0605</v>
       </c>
       <c r="F3" s="1">
         <v>693.4755</v>
       </c>
       <c r="G3" s="1">
-        <v>1459.536</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10549.8016</v>
       </c>
       <c r="I3" s="1">
-        <v>19599.99</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4289</v>
+        <v>10549.8016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9599.99</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.5316</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9599.99</v>
       </c>
-      <c r="O3" s="1">
-        <v>400.01</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20500.01</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0277</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.4086</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1459.536</v>
       </c>
       <c r="F4" s="1">
         <v>654.4037</v>
       </c>
       <c r="G4" s="1">
-        <v>2113.9397</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20920.843</v>
       </c>
       <c r="I4" s="1">
-        <v>29029.0309</v>
+        <v>400.01</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7322</v>
+        <v>21320.8531</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19029.0309</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.0377</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9429.0409</v>
       </c>
-      <c r="O4" s="1">
-        <v>970.9691</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31271.9691</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0253</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.9338</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2113.9397</v>
       </c>
       <c r="F5" s="1">
         <v>619.1776</v>
       </c>
       <c r="G5" s="1">
-        <v>2733.1173</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31405.3221</v>
       </c>
       <c r="I5" s="1">
-        <v>38275.705</v>
+        <v>970.9691</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0044</v>
+        <v>32376.2912</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28275.705</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.3758</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9246.674199999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>1724.295</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42328.305</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0256</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.9313</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2733.1173</v>
       </c>
       <c r="F6" s="1">
         <v>485.4464</v>
       </c>
       <c r="G6" s="1">
-        <v>3218.5637</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>43316.3556</v>
       </c>
       <c r="I6" s="1">
-        <v>46009.4974</v>
+        <v>1724.295</v>
       </c>
       <c r="J6" s="1">
-        <v>14.295</v>
+        <v>45040.6505</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36009.4974</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.1752</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7733.7924</v>
       </c>
-      <c r="O6" s="1">
-        <v>3990.5026</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55000.5527</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0511</v>
+        <v>0.0629</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.0207</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3218.5637</v>
       </c>
       <c r="F7" s="1">
         <v>414.7163</v>
       </c>
       <c r="G7" s="1">
-        <v>3633.28</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54498.0076</v>
       </c>
       <c r="I7" s="1">
-        <v>53068.2599</v>
+        <v>3990.5026</v>
       </c>
       <c r="J7" s="1">
-        <v>14.6062</v>
+        <v>58488.5101</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43068.2599</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.3812</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7058.7625</v>
       </c>
-      <c r="O7" s="1">
-        <v>6931.7401</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68451.8907</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0531</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.4608</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3633.28</v>
       </c>
       <c r="F8" s="1">
         <v>519.5422</v>
       </c>
       <c r="G8" s="1">
-        <v>4152.8222</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63110.8006</v>
       </c>
       <c r="I8" s="1">
-        <v>62139.882</v>
+        <v>6931.7401</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9633</v>
+        <v>70042.5407</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52139.882</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.3506</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9071.621999999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>7860.118</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79995.47010000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0197</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.886</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4152.8222</v>
       </c>
       <c r="F9" s="1">
         <v>779.5650000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4932.3872</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>69761.18369999999</v>
       </c>
       <c r="I9" s="1">
-        <v>75303.6159</v>
+        <v>7860.118</v>
       </c>
       <c r="J9" s="1">
-        <v>15.2672</v>
+        <v>77621.3017</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65303.6159</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.7251</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13163.7339</v>
       </c>
-      <c r="O9" s="1">
-        <v>4696.3841</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87553.0898</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0271</v>
+        <v>-0.0302</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.59</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4932.3872</v>
       </c>
       <c r="F10" s="1">
         <v>421.4241</v>
       </c>
       <c r="G10" s="1">
-        <v>5353.8113</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>86310.8564</v>
       </c>
       <c r="I10" s="1">
-        <v>82716.46610000001</v>
+        <v>4696.3841</v>
       </c>
       <c r="J10" s="1">
-        <v>15.45</v>
+        <v>91007.2405</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72716.46610000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.7427</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7412.8502</v>
       </c>
-      <c r="O10" s="1">
-        <v>7283.5339</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100968.8066</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.035</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.0121</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5353.8113</v>
       </c>
       <c r="F11" s="1">
         <v>1151.3069</v>
       </c>
       <c r="G11" s="1">
-        <v>6505.1181</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>97148.73540000001</v>
+        <v>79954.88830000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>7283.5339</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3725</v>
+        <v>87238.4222</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.8105</v>
+      </c>
+      <c r="M11" s="1">
         <v>3.57</v>
       </c>
-      <c r="L11" s="1">
-        <v>17201.7956</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-81.7383</v>
+        <v>15847.7599</v>
       </c>
       <c r="O11" s="1">
-        <v>17201.7956</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114350.531</v>
+        <v>-1435.774</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0305</v>
+        <v>-0.1363</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.3645</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6505.1181</v>
       </c>
       <c r="F12" s="1">
         <v>1062.4226</v>
       </c>
       <c r="G12" s="1">
-        <v>7567.5407</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>99429.4298</v>
       </c>
       <c r="I12" s="1">
-        <v>116323.5919</v>
+        <v>15847.7599</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3714</v>
+        <v>115277.1898</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>106323.5919</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.3446</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-16323.5919</v>
       </c>
-      <c r="O12" s="1">
-        <v>10878.2037</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126546.5504</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0177</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.4953</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7567.5407</v>
       </c>
       <c r="F13" s="1">
         <v>161.1216</v>
       </c>
       <c r="G13" s="1">
-        <v>7728.6623</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>124181.0732</v>
       </c>
       <c r="I13" s="1">
-        <v>118981.3408</v>
+        <v>9524.168</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3948</v>
+        <v>133705.2412</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108981.3408</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.4012</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2657.7489</v>
       </c>
-      <c r="O13" s="1">
-        <v>18220.4548</v>
-      </c>
-      <c r="P13" s="1">
-        <v>145045.4849</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0622</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.9701</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7728.6623</v>
       </c>
       <c r="F14" s="1">
         <v>-7728.6623</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130476.0502</v>
       </c>
       <c r="I14" s="1">
-        <v>118981.3408</v>
+        <v>16866.4191</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3948</v>
+        <v>147342.4693</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108981.3408</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1009</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130476.0502</v>
       </c>
-      <c r="O14" s="1">
-        <v>148696.505</v>
-      </c>
-      <c r="P14" s="1">
-        <v>148696.505</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0409</v>
+        <v>0.0253</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.0538</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>766.0605</v>
       </c>
       <c r="G2" s="1">
-        <v>766.0605</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.137699999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.0538</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.137699999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.8433</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>766.0605</v>
       </c>
       <c r="F3" s="1">
         <v>697.1061999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1463.1667</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10549.8016</v>
       </c>
       <c r="I3" s="1">
-        <v>19650.2506</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4299</v>
+        <v>10549.8016</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9650.250599999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.5972</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9650.250599999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>349.7494</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20499.7494</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0277</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.4086</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1463.1667</v>
       </c>
       <c r="F4" s="1">
         <v>661.3249</v>
       </c>
       <c r="G4" s="1">
-        <v>2124.4916</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20972.8849</v>
       </c>
       <c r="I4" s="1">
-        <v>29179.0167</v>
+        <v>349.7494</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7346</v>
+        <v>21322.6343</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19179.0167</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.1079</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9528.766</v>
       </c>
-      <c r="O4" s="1">
-        <v>820.9833</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31273.2333</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0254</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.9338</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2124.4916</v>
       </c>
       <c r="F5" s="1">
         <v>629.1573</v>
       </c>
       <c r="G5" s="1">
-        <v>2753.6489</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31562.0844</v>
       </c>
       <c r="I5" s="1">
-        <v>38574.7257</v>
+        <v>820.9833</v>
       </c>
       <c r="J5" s="1">
-        <v>14.0086</v>
+        <v>32383.0677</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28574.7257</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.4501</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9395.709000000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1425.2743</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42334.3081</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0257</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.9313</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2753.6489</v>
       </c>
       <c r="F6" s="1">
         <v>497.2594</v>
       </c>
       <c r="G6" s="1">
-        <v>3250.9082</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43641.7549</v>
       </c>
       <c r="I6" s="1">
-        <v>46496.7137</v>
+        <v>1425.2743</v>
       </c>
       <c r="J6" s="1">
-        <v>14.3027</v>
+        <v>45067.0292</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36496.7137</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.2539</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7921.988</v>
       </c>
-      <c r="O6" s="1">
-        <v>3503.2863</v>
-      </c>
-      <c r="P6" s="1">
-        <v>55025.9556</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0514</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.0207</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3250.9082</v>
       </c>
       <c r="F7" s="1">
         <v>428.1632</v>
       </c>
       <c r="G7" s="1">
-        <v>3679.0714</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>55045.6785</v>
       </c>
       <c r="I7" s="1">
-        <v>53784.3513</v>
+        <v>3503.2863</v>
       </c>
       <c r="J7" s="1">
-        <v>14.619</v>
+        <v>58548.9648</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43784.3513</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.4683</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7287.6376</v>
       </c>
-      <c r="O7" s="1">
-        <v>6215.6487</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68511.158</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0536</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.4608</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3679.0714</v>
       </c>
       <c r="F8" s="1">
         <v>536.7661000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4215.8376</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63906.2068</v>
       </c>
       <c r="I8" s="1">
-        <v>63156.7175</v>
+        <v>6215.6487</v>
       </c>
       <c r="J8" s="1">
-        <v>14.9808</v>
+        <v>70121.85550000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53156.7175</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.4484</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9372.3662</v>
       </c>
-      <c r="O8" s="1">
-        <v>6843.2825</v>
-      </c>
-      <c r="P8" s="1">
-        <v>80073.2245</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0199</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.886</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4215.8376</v>
       </c>
       <c r="F9" s="1">
         <v>804.1577</v>
       </c>
       <c r="G9" s="1">
-        <v>5019.9953</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>70819.7476</v>
       </c>
       <c r="I9" s="1">
-        <v>76735.72470000001</v>
+        <v>6843.2825</v>
       </c>
       <c r="J9" s="1">
-        <v>15.286</v>
+        <v>77663.0301</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66735.72470000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.8298</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13579.0073</v>
       </c>
-      <c r="O9" s="1">
-        <v>3264.2753</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87592.6663</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0275</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.59</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5019.9953</v>
       </c>
       <c r="F10" s="1">
         <v>442.8545</v>
       </c>
       <c r="G10" s="1">
-        <v>5462.8498</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>87843.89380000001</v>
       </c>
       <c r="I10" s="1">
-        <v>84525.5362</v>
+        <v>3264.2753</v>
       </c>
       <c r="J10" s="1">
-        <v>15.4728</v>
+        <v>91108.16899999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74525.5362</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.8457</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7789.8115</v>
       </c>
-      <c r="O10" s="1">
-        <v>5474.4638</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101067.7807</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0356</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.0121</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5462.8498</v>
       </c>
       <c r="F11" s="1">
         <v>1030.7994</v>
       </c>
       <c r="G11" s="1">
-        <v>6493.6493</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96977.4567</v>
+        <v>81583.2922</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>5474.4638</v>
       </c>
       <c r="J11" s="1">
-        <v>15.3997</v>
+        <v>87057.75599999999</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>16.4749</v>
+      </c>
+      <c r="M11" s="1">
         <v>3.57</v>
       </c>
-      <c r="L11" s="1">
-        <v>17552.1366</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>2077.6728</v>
+        <v>16129.2449</v>
       </c>
       <c r="O11" s="1">
-        <v>17552.1366</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>114529.5933</v>
+        <v>654.7811</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0312</v>
+        <v>-0.139</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.3645</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6493.6493</v>
       </c>
       <c r="F12" s="1">
         <v>1267.8278</v>
       </c>
       <c r="G12" s="1">
-        <v>7761.4771</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>99254.13009999999</v>
       </c>
       <c r="I12" s="1">
-        <v>119479.5407</v>
+        <v>16129.2449</v>
       </c>
       <c r="J12" s="1">
-        <v>15.3939</v>
+        <v>115383.375</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>109479.5407</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.8595</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-19479.5407</v>
       </c>
-      <c r="O12" s="1">
-        <v>8072.5959</v>
-      </c>
-      <c r="P12" s="1">
-        <v>126705.2208</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0175</v>
+        <v>0.1888</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.4953</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7761.4771</v>
       </c>
       <c r="F13" s="1">
         <v>185.7806</v>
       </c>
       <c r="G13" s="1">
-        <v>7947.2577</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>127363.5105</v>
       </c>
       <c r="I13" s="1">
-        <v>122544.0473</v>
+        <v>6649.7042</v>
       </c>
       <c r="J13" s="1">
-        <v>15.4197</v>
+        <v>134013.2147</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112544.0473</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.5003</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3064.5066</v>
       </c>
-      <c r="O13" s="1">
-        <v>15008.0893</v>
-      </c>
-      <c r="P13" s="1">
-        <v>145420.2036</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0638</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.9701</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7947.2577</v>
       </c>
       <c r="F14" s="1">
         <v>-7947.2577</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134166.3988</v>
       </c>
       <c r="I14" s="1">
-        <v>122544.0473</v>
+        <v>13585.1976</v>
       </c>
       <c r="J14" s="1">
-        <v>15.4197</v>
+        <v>147751.5964</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112544.0473</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.1614</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134166.3988</v>
       </c>
-      <c r="O14" s="1">
-        <v>149174.4881</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149174.4881</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0402</v>
+        <v>0.026</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.9244</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.5853</v>
+        <v>14.4422</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3435</v>
+        <v>13.976</v>
       </c>
       <c r="E3" s="1">
-        <v>15.3694</v>
+        <v>14.0392</v>
       </c>
       <c r="F3" s="1">
-        <v>15.3948</v>
+        <v>14.1009</v>
       </c>
       <c r="G3" s="1">
-        <v>15.4197</v>
+        <v>14.1614</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2869</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2947</v>
+        <v>0.4393</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2716</v>
+        <v>0.4157</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2756</v>
+        <v>0.4201</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2797</v>
+        <v>0.4246</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2839</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2017</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1019</v>
+        <v>0.2601</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0993</v>
+        <v>0.2356</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0999</v>
+        <v>0.2397</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1005</v>
+        <v>0.2439</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1012</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3213</v>
       </c>
       <c r="C6" s="4">
-        <v>2.6926</v>
+        <v>1.6108</v>
       </c>
       <c r="D6" s="4">
-        <v>2.5305</v>
+        <v>1.6777</v>
       </c>
       <c r="E6" s="4">
-        <v>2.5553</v>
+        <v>1.6674</v>
       </c>
       <c r="F6" s="4">
-        <v>2.5798</v>
+        <v>1.6572</v>
       </c>
       <c r="G6" s="4">
-        <v>2.604</v>
+        <v>1.647</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5125</v>
+        <v>0.1526</v>
       </c>
       <c r="D7" s="3">
-        <v>0.523</v>
+        <v>0.4962</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5234</v>
+        <v>0.4956</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5238</v>
+        <v>0.495</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5242</v>
+        <v>0.4944</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>18637.7177</v>
+        <v>16811.1117</v>
       </c>
       <c r="D8" s="1">
-        <v>16525.1332</v>
+        <v>15301.3662</v>
       </c>
       <c r="E8" s="1">
-        <v>16859.5207</v>
+        <v>15571.8346</v>
       </c>
       <c r="F8" s="1">
-        <v>17201.7956</v>
+        <v>15847.7599</v>
       </c>
       <c r="G8" s="1">
-        <v>17552.1366</v>
+        <v>16129.2449</v>
       </c>
     </row>
   </sheetData>
